--- a/Project_Cases/data_sample/R_check_output.xlsx
+++ b/Project_Cases/data_sample/R_check_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,35 +454,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PMC6934797</t>
+          <t>PMC5768461</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['the  | R-package |  APML0.', 'available  | R-package |  APML0', 'used  | R-package |  glmnet', 'our  | R-package |  APML0', 'using  | R-package |  Rcpp', 'for  | R-package | s', 'the  | R package |  “timeROC”.', 'A:  | R-package |  R-package', 'using  | R-package |  Rcpp', '].  | R-package |  APML0']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PMC6923921</t>
+          <t>PMC6739370</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['the  | R-package |  “PheWAS”.', 'the  | R-package |  “gtx”.', 'the  | R-package | ‘gtx’', 'the  | R-package |  “gtx”', 'the  | R-package |  “coloc”', 'an  | R package |  for']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PMC6924001</t>
+          <t>PMC6706929</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -493,42 +501,50 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[' or R version 3.4.4 ', 'R Foundation for Statistical Computing, Vienna, Austria']</t>
+          <t>['“minfi”  | R-package |  [', 'using |  R version 3.3.1 |  and', 'minfi  | R-package |  [', 'minfi  | R-package | ,']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PMC6907243</t>
+          <t>PMC6693517</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['new  | R-package | ,', 'flexible |  R program |  that', 'the  | R package |  MIIVsem', 'MIIVsem  | R package | .', 'MIIVsem  | R package |  estimates', 'MIIVsem  | R package | .', 'MIIVsem  | R package | ,', 'the  | R package |  lavaan.', '.  | R package |  version', 'An  | R package |  for']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>PMC6896698</t>
+          <t>PMC6477982</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['in  | R-package |  e1071.', 'CID | R package | .', 'ADPclust  | R-package |  (', 'ADPclust  | R-package |  (', 'scater  | R-package | )']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PMC6890709</t>
+          <t>PMC5619925</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -539,213 +555,81 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[' &lt;em&gt;R&lt;/em&gt; recipient, ']</t>
+          <t>['survival  | R package | ,', 'ConsensusClusterPlus  | R package |  (', 'SigClust  | R package |  (', 'samr  | R package |  (', 'pheatmap  | R package |  (v1.0.2)', 'in |  R 3.1.2 | ,', 'pheatmap  | R package |  (v0.7.7', 'custom |  R program | s', ')  | R package | ,', 'v1.4.1  | R package |  (', 'in |  R v3.3.3 | ,', 'heatmap.plus  | R package | .', 'VIPER  | R package |  (', 'flexible  | R package |  for']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PMC6938279</t>
+          <t>PMC7228100</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['the  | R package |  qgcomp.', '( | R package |  gWQS', '( | R package |  qgcomp', '( | R package |  gWQS', '( | R package |  qgcomp', '( | R package |  gWQS', '( | R package |  qgcomp', 'WQS  | R package |  (with', 'accompanying  | R package |  qgcomp)', 'the  | R package |  bkmr)', 'qgcomp  | R package | ,']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>PMC6884791</t>
+          <t>PMC7094075</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['and |  R script |  are', 'the  | R package |  ‘DADA2’', 'the  | R package |  ‘phyloseq’', 'the  | R package |  ‘lme4’', 'the  | R package |  ‘picante’', 'the  | R package |  ‘car’', 'the  | R package |  ‘LmerTest’', 'the  | R package | s', 'the  | R package |  ‘SpiecEasi’', 'the  | R package |  ‘igraph’', 'the  | R package |  ‘vegan’', 'and |  R script |  are', 'an  | R package |  for', 'package.  | R package |  version']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PMC6924788</t>
+          <t>PMC6876890</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['the  | R package |  corrplot', 'the  | R package |  DADA2', 'MOTHU | R package |  [', 'emmeans  | R package |  [', 'vegan  | R package |  v.2.5–3', 'the  | R package |  DESeq2', 'vegan  | R package |  version', 'the  | R package |  phytools', 'egg  | R package |  [', 'the  | R package |  clusterProfiler', 'an  | R package |  for', 'RDC.  | R: A language and environment |  for', 'an  | R Package |  for']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PMC6900537</t>
+          <t>PMC6505132</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>PMC6863521</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>PMC6890946</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>PMC6893614</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>PMC6915265</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[' these differences may be attributable to Medicare patients and those without private insurance being more likely to be referred to centers without a TAVR program and to smaller volume TAVR centers over time', 'year TAVR mortality once a TAVR program was initiated']</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>PMC6865601</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>PMC6888389</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>PMC6873154</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>['Medzhitov R (2008']</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>PMC6858213</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>PMC6893703</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>PMC6912285</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['our  | R package | ,', 'an  | R package |  SPARCC', 'the  | R package |  evir', 'software  | R package | :', '(  | R Core Team |  2018', 'an  | R package |  on', 'SPARCC  | R package |  are', 'the  | R package |  SPARCC.', 'the  | R package |  SPARCC', 'our  | R package |  SPARCC', '.  | R package |  version', ']  | R Core Team |  ,', '2018.  | R: A Language and Environment |  for', ',  | R Foundation |  for']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project_Cases/data_sample/R_check_output.xlsx
+++ b/Project_Cases/data_sample/R_check_output.xlsx
@@ -1,37 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pycharm_project\HSL_Bibliometrics-analysis\Project_Cases\data_sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3F65C0-9D6F-4DE2-B7F9-29F51827887E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Target_Aff</t>
+  </si>
+  <si>
+    <t>use_R</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>PMC5768461</t>
+  </si>
+  <si>
+    <t>['the  | R-package |  APML0.', 'available  | R-package |  APML0', 'used  | R-package |  glmnet', 'our  | R-package |  APML0', 'using  | R-package |  Rcpp', 'for  | R-package | s', 'the  | R package |  “timeROC”.', 'A:  | R-package |  R-package', 'using  | R-package |  Rcpp', '].  | R-package |  APML0']</t>
+  </si>
+  <si>
+    <t>PMC6739370</t>
+  </si>
+  <si>
+    <t>['the  | R-package |  “PheWAS”.', 'the  | R-package |  “gtx”.', 'the  | R-package | ‘gtx’', 'the  | R-package |  “gtx”', 'the  | R-package |  “coloc”', 'an  | R package |  for']</t>
+  </si>
+  <si>
+    <t>PMC6706929</t>
+  </si>
+  <si>
+    <t>['“minfi”  | R-package |  [', 'using |  R version 3.3.1 |  and', 'minfi  | R-package |  [', 'minfi  | R-package | ,']</t>
+  </si>
+  <si>
+    <t>PMC6693517</t>
+  </si>
+  <si>
+    <t>['new  | R-package | ,', 'flexible |  R program |  that', 'the  | R package |  MIIVsem', 'MIIVsem  | R package | .', 'MIIVsem  | R package |  estimates', 'MIIVsem  | R package | .', 'MIIVsem  | R package | ,', 'the  | R package |  lavaan.', '.  | R package |  version', 'An  | R package |  for']</t>
+  </si>
+  <si>
+    <t>PMC6477982</t>
+  </si>
+  <si>
+    <t>['in  | R-package |  e1071.', 'CID | R package | .', 'ADPclust  | R-package |  (', 'ADPclust  | R-package |  (', 'scater  | R-package | )']</t>
+  </si>
+  <si>
+    <t>PMC5619925</t>
+  </si>
+  <si>
+    <t>['survival  | R package | ,', 'ConsensusClusterPlus  | R package |  (', 'SigClust  | R package |  (', 'samr  | R package |  (', 'pheatmap  | R package |  (v1.0.2)', 'in |  R 3.1.2 | ,', 'pheatmap  | R package |  (v0.7.7', 'custom |  R program | s', ')  | R package | ,', 'v1.4.1  | R package |  (', 'in |  R v3.3.3 | ,', 'heatmap.plus  | R package | .', 'VIPER  | R package |  (', 'flexible  | R package |  for']</t>
+  </si>
+  <si>
+    <t>PMC7228100</t>
+  </si>
+  <si>
+    <t>['the  | R package |  qgcomp.', '( | R package |  gWQS', '( | R package |  qgcomp', '( | R package |  gWQS', '( | R package |  qgcomp', '( | R package |  gWQS', '( | R package |  qgcomp', 'WQS  | R package |  (with', 'accompanying  | R package |  qgcomp)', 'the  | R package |  bkmr)', 'qgcomp  | R package | ,']</t>
+  </si>
+  <si>
+    <t>PMC7094075</t>
+  </si>
+  <si>
+    <t>['and |  R script |  are', 'the  | R package |  ‘DADA2’', 'the  | R package |  ‘phyloseq’', 'the  | R package |  ‘lme4’', 'the  | R package |  ‘picante’', 'the  | R package |  ‘car’', 'the  | R package |  ‘LmerTest’', 'the  | R package | s', 'the  | R package |  ‘SpiecEasi’', 'the  | R package |  ‘igraph’', 'the  | R package |  ‘vegan’', 'and |  R script |  are', 'an  | R package |  for', 'package.  | R package |  version']</t>
+  </si>
+  <si>
+    <t>PMC6876890</t>
+  </si>
+  <si>
+    <t>['the  | R package |  corrplot', 'the  | R package |  DADA2', 'MOTHU | R package |  [', 'emmeans  | R package |  [', 'vegan  | R package |  v.2.5–3', 'the  | R package |  DESeq2', 'vegan  | R package |  version', 'the  | R package |  phytools', 'egg  | R package |  [', 'the  | R package |  clusterProfiler', 'an  | R package |  for', 'RDC.  | R: A language and environment |  for', 'an  | R Package |  for']</t>
+  </si>
+  <si>
+    <t>PMC6505132</t>
+  </si>
+  <si>
+    <t>['our  | R package | ,', 'an  | R package |  SPARCC', 'the  | R package |  evir', 'software  | R package | :', '(  | R Core Team |  2018', 'an  | R package |  on', 'SPARCC  | R package |  are', 'the  | R package |  SPARCC.', 'the  | R package |  SPARCC', 'our  | R package |  SPARCC', '.  | R package |  version', ']  | R Core Team |  ,', '2018.  | R: A Language and Environment |  for', ',  | R Foundation |  for']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +127,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +146,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,214 +451,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="109.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Target_Aff</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>use_R</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>PMC5768461</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>['the  | R-package |  APML0.', 'available  | R-package |  APML0', 'used  | R-package |  glmnet', 'our  | R-package |  APML0', 'using  | R-package |  Rcpp', 'for  | R-package | s', 'the  | R package |  “timeROC”.', 'A:  | R-package |  R-package', 'using  | R-package |  Rcpp', '].  | R-package |  APML0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>PMC6739370</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['the  | R-package |  “PheWAS”.', 'the  | R-package |  “gtx”.', 'the  | R-package | ‘gtx’', 'the  | R-package |  “gtx”', 'the  | R-package |  “coloc”', 'an  | R package |  for']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>PMC6706929</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['“minfi”  | R-package |  [', 'using |  R version 3.3.1 |  and', 'minfi  | R-package |  [', 'minfi  | R-package | ,']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>PMC6693517</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['new  | R-package | ,', 'flexible |  R program |  that', 'the  | R package |  MIIVsem', 'MIIVsem  | R package | .', 'MIIVsem  | R package |  estimates', 'MIIVsem  | R package | .', 'MIIVsem  | R package | ,', 'the  | R package |  lavaan.', '.  | R package |  version', 'An  | R package |  for']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>PMC6477982</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['in  | R-package |  e1071.', 'CID | R package | .', 'ADPclust  | R-package |  (', 'ADPclust  | R-package |  (', 'scater  | R-package | )']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>PMC5619925</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['survival  | R package | ,', 'ConsensusClusterPlus  | R package |  (', 'SigClust  | R package |  (', 'samr  | R package |  (', 'pheatmap  | R package |  (v1.0.2)', 'in |  R 3.1.2 | ,', 'pheatmap  | R package |  (v0.7.7', 'custom |  R program | s', ')  | R package | ,', 'v1.4.1  | R package |  (', 'in |  R v3.3.3 | ,', 'heatmap.plus  | R package | .', 'VIPER  | R package |  (', 'flexible  | R package |  for']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>PMC7228100</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['the  | R package |  qgcomp.', '( | R package |  gWQS', '( | R package |  qgcomp', '( | R package |  gWQS', '( | R package |  qgcomp', '( | R package |  gWQS', '( | R package |  qgcomp', 'WQS  | R package |  (with', 'accompanying  | R package |  qgcomp)', 'the  | R package |  bkmr)', 'qgcomp  | R package | ,']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>PMC7094075</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['and |  R script |  are', 'the  | R package |  ‘DADA2’', 'the  | R package |  ‘phyloseq’', 'the  | R package |  ‘lme4’', 'the  | R package |  ‘picante’', 'the  | R package |  ‘car’', 'the  | R package |  ‘LmerTest’', 'the  | R package | s', 'the  | R package |  ‘SpiecEasi’', 'the  | R package |  ‘igraph’', 'the  | R package |  ‘vegan’', 'and |  R script |  are', 'an  | R package |  for', 'package.  | R package |  version']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>PMC6876890</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>['the  | R package |  corrplot', 'the  | R package |  DADA2', 'MOTHU | R package |  [', 'emmeans  | R package |  [', 'vegan  | R package |  v.2.5–3', 'the  | R package |  DESeq2', 'vegan  | R package |  version', 'the  | R package |  phytools', 'egg  | R package |  [', 'the  | R package |  clusterProfiler', 'an  | R package |  for', 'RDC.  | R: A language and environment |  for', 'an  | R Package |  for']</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>PMC6505132</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['our  | R package | ,', 'an  | R package |  SPARCC', 'the  | R package |  evir', 'software  | R package | :', '(  | R Core Team |  2018', 'an  | R package |  on', 'SPARCC  | R package |  are', 'the  | R package |  SPARCC.', 'the  | R package |  SPARCC', 'our  | R package |  SPARCC', '.  | R package |  version', ']  | R Core Team |  ,', '2018.  | R: A Language and Environment |  for', ',  | R Foundation |  for']</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
